--- a/atomica/library/malaria_databook.xlsx
+++ b/atomica/library/malaria_databook.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A601DA5-6232-48CA-8B0C-2881FCAD044C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,14 @@
     <sheet name="Interactions" sheetId="9" r:id="rId9"/>
     <sheet name="Transfers" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +42,30 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>mos</t>
+  </si>
+  <si>
+    <t>Mosquito population</t>
+  </si>
+  <si>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>General population</t>
+  </si>
+  <si>
+    <t>preg</t>
+  </si>
+  <si>
+    <t>Pregnant women</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>Children</t>
   </si>
   <si>
     <t>Human population</t>
@@ -100,9 +137,6 @@
     <t>Treatment without test</t>
   </si>
   <si>
-    <t>Mosquito population</t>
-  </si>
-  <si>
     <t>Mosquito prevalence</t>
   </si>
   <si>
@@ -169,6 +203,9 @@
     <t>Distribution matrix</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -192,35 +229,11 @@
   <si>
     <t>Transfer 0</t>
   </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>mos</t>
-  </si>
-  <si>
-    <t>gp</t>
-  </si>
-  <si>
-    <t>preg</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>General population</t>
-  </si>
-  <si>
-    <t>Pregnant women</t>
-  </si>
-  <si>
-    <t>Children</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6262,6 +6275,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6553,7 +6569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -6578,34 +6594,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6614,7 +6630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -6642,10 +6658,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -6672,16 +6688,16 @@
         <v>mos</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -6690,16 +6706,16 @@
         <v>gp</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -6708,16 +6724,16 @@
         <v>preg</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -6726,16 +6742,16 @@
         <v>child</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6743,10 +6759,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -7200,7 +7216,7 @@
         <v>gp</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="2">
         <v>0.2</v>
@@ -7668,124 +7684,37 @@
       <formula>$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="32">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5 E8 D7 C6" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"N.A."</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D8 E7 C7:C8 D6:E6 B6:B8 C5:E5" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
-      <formula1>"Number,Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D11:D26" xr:uid="{00000000-0002-0000-0900-000010000000}">
       <formula1>"Number,Probability"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C5" location="Transfers!C12" display="N"/>
-    <hyperlink ref="D5" location="Transfers!C13" display="N"/>
-    <hyperlink ref="E5" location="Transfers!C14" display="N"/>
-    <hyperlink ref="B6" location="Transfers!C15" display="N"/>
-    <hyperlink ref="D6" location="Transfers!C17" display="N"/>
-    <hyperlink ref="E6" location="Transfers!C18" display="N"/>
-    <hyperlink ref="B7" location="Transfers!C19" display="N"/>
-    <hyperlink ref="C7" location="Transfers!C20" display="N"/>
-    <hyperlink ref="E7" location="Transfers!C22" display="N"/>
-    <hyperlink ref="B8" location="Transfers!C23" display="N"/>
-    <hyperlink ref="C8" location="Transfers!C24" display="N"/>
-    <hyperlink ref="D8" location="Transfers!C25" display="N"/>
+    <hyperlink ref="C5" location="Transfers!C12" display="N" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="D5" location="Transfers!C13" display="N" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="E5" location="Transfers!C14" display="N" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="B6" location="Transfers!C15" display="N" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="D6" location="Transfers!C17" display="N" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="E6" location="Transfers!C18" display="N" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="B7" location="Transfers!C19" display="N" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="C7" location="Transfers!C20" display="N" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="E7" location="Transfers!C22" display="N" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="B8" location="Transfers!C23" display="N" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
+    <hyperlink ref="C8" location="Transfers!C24" display="N" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
+    <hyperlink ref="D8" location="Transfers!C25" display="N" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -7805,13 +7734,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -7854,13 +7783,13 @@
         <v>mos</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -7880,11 +7809,11 @@
         <v>gp</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>49090153</v>
@@ -7916,11 +7845,11 @@
         <v>preg</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>887333</v>
@@ -7952,11 +7881,11 @@
         <v>child</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>10509301</v>
@@ -7984,13 +7913,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -8033,13 +7962,13 @@
         <v>mos</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -8059,11 +7988,11 @@
         <v>gp</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>0.38</v>
@@ -8095,11 +8024,11 @@
         <v>preg</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>0.22</v>
@@ -8131,11 +8060,11 @@
         <v>child</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
         <v>0.31</v>
@@ -8163,13 +8092,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -8212,13 +8141,13 @@
         <v>mos</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -8238,13 +8167,13 @@
         <v>gp</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <v>1.20915E-2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -8264,13 +8193,13 @@
         <v>preg</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>3.5558199999999998E-2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -8290,13 +8219,13 @@
         <v>child</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>3.1762699999999998E-2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -8312,13 +8241,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -8361,13 +8290,13 @@
         <v>mos</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -8387,13 +8316,13 @@
         <v>gp</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -8413,13 +8342,13 @@
         <v>preg</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -8439,13 +8368,13 @@
         <v>child</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" s="6">
         <v>1000000</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -8588,54 +8517,15 @@
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20:B23 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B11" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"Fraction"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Fraction"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Fraction"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Fraction"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14:B17" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8643,7 +8533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -8663,13 +8553,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -8712,13 +8602,13 @@
         <v>mos</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -8738,11 +8628,11 @@
         <v>gp</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>14893542</v>
@@ -8774,11 +8664,11 @@
         <v>preg</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="7">
         <v>529547</v>
@@ -8810,11 +8700,11 @@
         <v>child</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7">
         <v>9031371</v>
@@ -8842,13 +8732,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -8891,13 +8781,13 @@
         <v>mos</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <v>0.05</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -8917,13 +8807,13 @@
         <v>gp</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>0.05</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -8943,13 +8833,13 @@
         <v>preg</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
         <v>0.05</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -8969,13 +8859,13 @@
         <v>child</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <v>0.05</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -8991,13 +8881,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -9040,13 +8930,13 @@
         <v>mos</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
         <v>0.47</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -9066,13 +8956,13 @@
         <v>gp</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4">
         <v>0.47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -9092,13 +8982,13 @@
         <v>preg</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
         <v>0.47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -9118,13 +9008,13 @@
         <v>child</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4">
         <v>0.47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -9140,13 +9030,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -9189,13 +9079,13 @@
         <v>mos</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -9215,11 +9105,11 @@
         <v>gp</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
         <v>2.0100000000000001E-4</v>
@@ -9243,11 +9133,11 @@
         <v>preg</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>1.121E-3</v>
@@ -9271,11 +9161,11 @@
         <v>child</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
         <v>1.0189999999999999E-3</v>
@@ -9422,53 +9312,14 @@
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14:B17 B8:B11" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20:B23" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9477,7 +9328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -9497,13 +9348,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -9546,13 +9397,13 @@
         <v>mos</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4">
         <v>1E-3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -9572,13 +9423,13 @@
         <v>gp</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
         <v>1E-3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -9598,13 +9449,13 @@
         <v>preg</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>1E-3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -9624,13 +9475,13 @@
         <v>child</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>1E-3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -9646,13 +9497,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -9695,13 +9546,13 @@
         <v>mos</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4">
         <v>1.9178082191780819E-2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -9721,13 +9572,13 @@
         <v>gp</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>1.9178082191780819E-2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -9747,13 +9598,13 @@
         <v>preg</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4">
         <v>1.9178082191780819E-2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -9773,13 +9624,13 @@
         <v>child</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>1.9178082191780819E-2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -9795,13 +9646,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -9844,13 +9695,13 @@
         <v>mos</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -9870,13 +9721,13 @@
         <v>gp</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" s="6">
         <v>1000000</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -9896,13 +9747,13 @@
         <v>preg</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6">
         <v>100000</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -9922,13 +9773,13 @@
         <v>child</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C17" s="6">
         <v>100000</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -9944,13 +9795,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -9993,13 +9844,13 @@
         <v>mos</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -10019,13 +9870,13 @@
         <v>gp</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="6">
         <v>10000</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -10045,13 +9896,13 @@
         <v>preg</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22" s="6">
         <v>1000</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -10071,13 +9922,13 @@
         <v>child</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" s="6">
         <v>1000</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -10093,13 +9944,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -10142,13 +9993,13 @@
         <v>mos</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -10168,13 +10019,13 @@
         <v>gp</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C27" s="6">
         <v>10000</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -10194,13 +10045,13 @@
         <v>preg</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28" s="6">
         <v>1000</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -10220,13 +10071,13 @@
         <v>child</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" s="6">
         <v>1000</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -10242,13 +10093,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -10291,13 +10142,13 @@
         <v>mos</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -10317,13 +10168,13 @@
         <v>gp</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C33" s="6">
         <v>10000</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -10343,13 +10194,13 @@
         <v>preg</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C34" s="6">
         <v>1000</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -10369,13 +10220,13 @@
         <v>child</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C35" s="6">
         <v>1000</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -10391,13 +10242,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -10440,13 +10291,13 @@
         <v>mos</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -10466,13 +10317,13 @@
         <v>gp</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C39" s="6">
         <v>100000</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -10492,13 +10343,13 @@
         <v>preg</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C40" s="6">
         <v>10000</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -10518,13 +10369,13 @@
         <v>child</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C41" s="6">
         <v>10000</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -10763,89 +10614,14 @@
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="28">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B11" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38:B41 B32:B35 B26:B29 B20:B23 B14:B17" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10854,7 +10630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -10874,13 +10650,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -10923,13 +10699,13 @@
         <v>mos</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6">
         <v>6048678700</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -10949,13 +10725,13 @@
         <v>gp</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -10975,13 +10751,13 @@
         <v>preg</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -11001,13 +10777,13 @@
         <v>child</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -11023,13 +10799,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -11072,13 +10848,13 @@
         <v>mos</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>0.3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -11098,13 +10874,13 @@
         <v>gp</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -11124,13 +10900,13 @@
         <v>preg</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -11150,13 +10926,13 @@
         <v>child</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -11172,13 +10948,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -11221,13 +10997,13 @@
         <v>mos</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <v>0.5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -11247,13 +11023,13 @@
         <v>gp</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -11273,13 +11049,13 @@
         <v>preg</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -11299,13 +11075,13 @@
         <v>child</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -11321,13 +11097,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -11370,13 +11146,13 @@
         <v>mos</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -11396,13 +11172,13 @@
         <v>gp</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -11422,13 +11198,13 @@
         <v>preg</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -11448,13 +11224,13 @@
         <v>child</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C23" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -11470,13 +11246,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -11519,13 +11295,13 @@
         <v>mos</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26" s="6">
         <v>60486787000</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -11545,13 +11321,13 @@
         <v>gp</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -11571,13 +11347,13 @@
         <v>preg</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -11597,13 +11373,13 @@
         <v>child</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -11619,13 +11395,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -11668,13 +11444,13 @@
         <v>mos</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4">
         <v>9.5890410958904104E-2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -11694,13 +11470,13 @@
         <v>gp</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4">
         <v>9.5890410958904104E-2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -11720,13 +11496,13 @@
         <v>preg</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4">
         <v>9.5890410958904104E-2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -11746,13 +11522,13 @@
         <v>child</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4">
         <v>9.5890410958904104E-2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -11959,77 +11735,14 @@
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26:B29 B14:B17 B2:B5" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B11" xr:uid="{00000000-0002-0000-0400-000004000000}">
       <formula1>"Fraction"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Fraction"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Fraction"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Fraction"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B32:B35 B20:B23" xr:uid="{00000000-0002-0000-0400-00000C000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12038,7 +11751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -12056,13 +11769,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -12105,13 +11818,13 @@
         <v>mos</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12131,13 +11844,13 @@
         <v>gp</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -12157,13 +11870,13 @@
         <v>preg</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -12183,13 +11896,13 @@
         <v>child</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -12205,13 +11918,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -12254,13 +11967,13 @@
         <v>mos</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -12280,13 +11993,13 @@
         <v>gp</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -12306,13 +12019,13 @@
         <v>preg</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -12332,13 +12045,13 @@
         <v>child</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -12354,13 +12067,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -12403,13 +12116,13 @@
         <v>mos</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -12429,13 +12142,13 @@
         <v>gp</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -12455,13 +12168,13 @@
         <v>preg</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -12481,13 +12194,13 @@
         <v>child</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -12503,13 +12216,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -12552,13 +12265,13 @@
         <v>mos</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -12578,13 +12291,13 @@
         <v>gp</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -12604,13 +12317,13 @@
         <v>preg</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -12630,13 +12343,13 @@
         <v>child</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -12652,13 +12365,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -12701,13 +12414,13 @@
         <v>mos</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -12727,13 +12440,13 @@
         <v>gp</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -12753,13 +12466,13 @@
         <v>preg</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -12779,13 +12492,13 @@
         <v>child</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -12801,13 +12514,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -12850,13 +12563,13 @@
         <v>mos</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4">
         <v>3.8356164383561653E-2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -12876,13 +12589,13 @@
         <v>gp</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C33" s="4">
         <v>3.8356164383561653E-2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -12902,13 +12615,13 @@
         <v>preg</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4">
         <v>3.8356164383561653E-2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -12928,13 +12641,13 @@
         <v>child</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4">
         <v>3.8356164383561653E-2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -12950,13 +12663,13 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -12999,13 +12712,13 @@
         <v>mos</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4">
         <v>2.7397260273972601E-2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -13025,13 +12738,13 @@
         <v>gp</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C39" s="4">
         <v>2.7397260273972601E-2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -13051,13 +12764,13 @@
         <v>preg</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4">
         <v>2.7397260273972601E-2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -13077,13 +12790,13 @@
         <v>child</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C41" s="4">
         <v>2.7397260273972601E-2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -13099,13 +12812,13 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
@@ -13148,13 +12861,13 @@
         <v>mos</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C44" s="4">
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -13174,13 +12887,13 @@
         <v>gp</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C45" s="4">
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -13200,13 +12913,13 @@
         <v>preg</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4">
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -13226,13 +12939,13 @@
         <v>child</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C47" s="4">
         <v>8.2191780821917804E-2</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -13248,13 +12961,13 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -13297,13 +13010,13 @@
         <v>mos</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C50" s="4">
         <v>0.24657534246575341</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -13323,13 +13036,13 @@
         <v>gp</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4">
         <v>0.24657534246575341</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -13349,13 +13062,13 @@
         <v>preg</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4">
         <v>0.24657534246575341</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -13375,13 +13088,13 @@
         <v>child</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C53" s="4">
         <v>0.24657534246575341</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -13397,13 +13110,13 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
@@ -13446,13 +13159,13 @@
         <v>mos</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C56" s="4">
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -13472,13 +13185,13 @@
         <v>gp</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C57" s="4">
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -13498,13 +13211,13 @@
         <v>preg</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C58" s="4">
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -13524,13 +13237,13 @@
         <v>child</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C59" s="4">
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -13546,13 +13259,13 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
@@ -13595,13 +13308,13 @@
         <v>mos</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C62" s="4">
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -13621,13 +13334,13 @@
         <v>gp</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C63" s="4">
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -13647,13 +13360,13 @@
         <v>preg</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C64" s="4">
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -13673,13 +13386,13 @@
         <v>child</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C65" s="4">
         <v>5.4794520547945202E-2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -14046,137 +13759,11 @@
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="44">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B56:B59 B50:B53 B44:B47 B38:B41 B32:B35" xr:uid="{00000000-0002-0000-0500-000014000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14185,7 +13772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -14203,13 +13790,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -14252,13 +13839,13 @@
         <v>mos</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -14278,13 +13865,13 @@
         <v>gp</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -14304,13 +13891,13 @@
         <v>preg</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -14330,13 +13917,13 @@
         <v>child</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -14352,13 +13939,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -14401,13 +13988,13 @@
         <v>mos</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4">
         <v>0.9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -14427,13 +14014,13 @@
         <v>gp</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
         <v>0.9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -14453,13 +14040,13 @@
         <v>preg</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
         <v>0.9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -14479,13 +14066,13 @@
         <v>child</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4">
         <v>0.9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -14564,29 +14151,8 @@
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Proportion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14595,7 +14161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -14615,13 +14181,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -14664,13 +14230,13 @@
         <v>mos</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -14690,13 +14256,13 @@
         <v>gp</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -14716,13 +14282,13 @@
         <v>preg</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>0.62280000000000002</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -14742,13 +14308,13 @@
         <v>child</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -14764,13 +14330,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -14813,13 +14379,13 @@
         <v>mos</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -14839,13 +14405,13 @@
         <v>gp</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <v>27.89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -14865,13 +14431,13 @@
         <v>preg</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>28.06</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -14891,13 +14457,13 @@
         <v>child</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>30.77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -14976,29 +14542,8 @@
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15007,7 +14552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
@@ -15035,10 +14580,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -15065,16 +14610,16 @@
         <v>mos</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -15083,16 +14628,16 @@
         <v>gp</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -15101,16 +14646,16 @@
         <v>preg</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -15119,16 +14664,16 @@
         <v>child</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -15136,10 +14681,10 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -15190,7 +14735,7 @@
         <v>...</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -15225,7 +14770,7 @@
         <v>...</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -15260,7 +14805,7 @@
         <v>...</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -15295,7 +14840,7 @@
         <v>...</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -15330,7 +14875,7 @@
         <v>mos</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -15365,7 +14910,7 @@
         <v>...</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -15400,7 +14945,7 @@
         <v>...</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -15435,7 +14980,7 @@
         <v>...</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -15470,7 +15015,7 @@
         <v>mos</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -15505,7 +15050,7 @@
         <v>...</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -15540,7 +15085,7 @@
         <v>...</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -15575,7 +15120,7 @@
         <v>...</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -15610,7 +15155,7 @@
         <v>mos</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -15645,7 +15190,7 @@
         <v>...</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -15680,7 +15225,7 @@
         <v>...</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -15715,7 +15260,7 @@
         <v>...</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -15746,10 +15291,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -15776,16 +15321,16 @@
         <v>mos</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -15794,16 +15339,16 @@
         <v>gp</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -15812,16 +15357,16 @@
         <v>preg</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -15830,16 +15375,16 @@
         <v>child</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -15847,10 +15392,10 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1">
@@ -15901,7 +15446,7 @@
         <v>...</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
@@ -15936,7 +15481,7 @@
         <v>...</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
@@ -15971,7 +15516,7 @@
         <v>...</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -16006,7 +15551,7 @@
         <v>...</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -16041,7 +15586,7 @@
         <v>mos</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E42" s="4">
         <v>0.5</v>
@@ -16076,7 +15621,7 @@
         <v>...</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
@@ -16111,7 +15656,7 @@
         <v>...</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
@@ -16146,7 +15691,7 @@
         <v>...</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
@@ -16181,7 +15726,7 @@
         <v>mos</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E46" s="4">
         <v>0.3</v>
@@ -16216,7 +15761,7 @@
         <v>...</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
@@ -16251,7 +15796,7 @@
         <v>...</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
@@ -16286,7 +15831,7 @@
         <v>...</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
@@ -16321,7 +15866,7 @@
         <v>mos</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E50" s="4">
         <v>0.2</v>
@@ -16356,7 +15901,7 @@
         <v>...</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -16391,7 +15936,7 @@
         <v>...</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -16426,7 +15971,7 @@
         <v>...</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
@@ -16457,10 +16002,10 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -16487,16 +16032,16 @@
         <v>mos</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D59" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -16505,16 +16050,16 @@
         <v>gp</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D60" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -16523,16 +16068,16 @@
         <v>preg</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D61" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -16541,16 +16086,16 @@
         <v>child</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D62" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -16558,10 +16103,10 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1">
@@ -16612,7 +16157,7 @@
         <v>...</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E65" s="4">
         <v>1</v>
@@ -16647,7 +16192,7 @@
         <v>gp</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E66" s="4">
         <v>1</v>
@@ -16682,7 +16227,7 @@
         <v>preg</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E67" s="4">
         <v>1</v>
@@ -16717,7 +16262,7 @@
         <v>child</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E68" s="4">
         <v>1</v>
@@ -16752,7 +16297,7 @@
         <v>...</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E69" s="4">
         <v>1</v>
@@ -16787,7 +16332,7 @@
         <v>gp</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E70" s="4">
         <v>1</v>
@@ -16822,7 +16367,7 @@
         <v>preg</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E71" s="4">
         <v>1</v>
@@ -16857,7 +16402,7 @@
         <v>child</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E72" s="4">
         <v>1</v>
@@ -16892,7 +16437,7 @@
         <v>...</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
@@ -16927,7 +16472,7 @@
         <v>gp</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E74" s="4">
         <v>1</v>
@@ -16962,7 +16507,7 @@
         <v>preg</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E75" s="4">
         <v>1</v>
@@ -16997,7 +16542,7 @@
         <v>child</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
@@ -17032,7 +16577,7 @@
         <v>...</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
@@ -17067,7 +16612,7 @@
         <v>gp</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E78" s="4">
         <v>1</v>
@@ -17102,7 +16647,7 @@
         <v>preg</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E79" s="4">
         <v>1</v>
@@ -17137,7 +16682,7 @@
         <v>child</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E80" s="4">
         <v>1</v>
@@ -18207,257 +17752,63 @@
       <formula>$E$62&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="71">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B59:E62 B32:E35 B5:E8" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:E7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:E8">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32:E32 C33:E35">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:B62">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C60">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D60">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E60">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C61">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D61">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E62">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D67">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D68">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D72">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D75">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D77">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D78">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D79">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D80">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D65:D80 D38:D53 D11:D26" xr:uid="{00000000-0002-0000-0800-000006000000}">
       <formula1>"N.A."</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B5" location="Interactions!C11" display="Y"/>
-    <hyperlink ref="C5" location="Interactions!C12" display="Y"/>
-    <hyperlink ref="B6" location="Interactions!C15" display="Y"/>
-    <hyperlink ref="C6" location="Interactions!C16" display="Y"/>
-    <hyperlink ref="C7" location="Interactions!C20" display="Y"/>
-    <hyperlink ref="C8" location="Interactions!C24" display="Y"/>
-    <hyperlink ref="B32" location="Interactions!C38" display="Y"/>
-    <hyperlink ref="B33" location="Interactions!C42" display="Y"/>
-    <hyperlink ref="B34" location="Interactions!C46" display="Y"/>
-    <hyperlink ref="B35" location="Interactions!C50" display="Y"/>
-    <hyperlink ref="C59" location="Interactions!C66" display="Y"/>
-    <hyperlink ref="D59" location="Interactions!C67" display="Y"/>
-    <hyperlink ref="E59" location="Interactions!C68" display="Y"/>
-    <hyperlink ref="B60" location="Interactions!C69" display="Y"/>
-    <hyperlink ref="C60" location="Interactions!C70" display="Y"/>
-    <hyperlink ref="D60" location="Interactions!C71" display="Y"/>
-    <hyperlink ref="E60" location="Interactions!C72" display="Y"/>
-    <hyperlink ref="C61" location="Interactions!C74" display="Y"/>
-    <hyperlink ref="D61" location="Interactions!C75" display="Y"/>
-    <hyperlink ref="E61" location="Interactions!C76" display="Y"/>
-    <hyperlink ref="C62" location="Interactions!C78" display="Y"/>
-    <hyperlink ref="D62" location="Interactions!C79" display="Y"/>
-    <hyperlink ref="E62" location="Interactions!C80" display="Y"/>
-    <hyperlink ref="D6" location="Interactions!C16" display="Y"/>
-    <hyperlink ref="E6" location="Interactions!C16" display="Y"/>
-    <hyperlink ref="D7" location="Interactions!C20" display="Y"/>
-    <hyperlink ref="E7" location="Interactions!C20" display="Y"/>
-    <hyperlink ref="D8" location="Interactions!C24" display="Y"/>
-    <hyperlink ref="E8" location="Interactions!C24" display="Y"/>
-    <hyperlink ref="C32:E32" location="Interactions!C38" display="Y"/>
-    <hyperlink ref="C33:E35" location="Interactions!C38" display="Y"/>
-    <hyperlink ref="B61:B62" location="Interactions!C69" display="Y"/>
-    <hyperlink ref="B59" location="Interactions!C69" display="Y"/>
-    <hyperlink ref="D5:E5" location="Interactions!C12" display="Y"/>
-    <hyperlink ref="B7:B8" location="Interactions!C15" display="Y"/>
+    <hyperlink ref="B5" location="Interactions!C11" display="Y" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="C5" location="Interactions!C12" display="Y" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="E5" location="Interactions!C12" display="Y" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="E5" location="Interactions!C12" display="Y" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B6" location="Interactions!C15" display="Y" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="C6" location="Interactions!C16" display="Y" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="D6" location="Interactions!C16" display="Y" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
+    <hyperlink ref="E6" location="Interactions!C16" display="Y" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
+    <hyperlink ref="B8" location="Interactions!C15" display="Y" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
+    <hyperlink ref="C7" location="Interactions!C20" display="Y" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
+    <hyperlink ref="D7" location="Interactions!C20" display="Y" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
+    <hyperlink ref="E7" location="Interactions!C20" display="Y" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
+    <hyperlink ref="B8" location="Interactions!C15" display="Y" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
+    <hyperlink ref="C8" location="Interactions!C24" display="Y" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
+    <hyperlink ref="D8" location="Interactions!C24" display="Y" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
+    <hyperlink ref="E8" location="Interactions!C24" display="Y" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
+    <hyperlink ref="B32" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
+    <hyperlink ref="E32" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-000011000000}"/>
+    <hyperlink ref="E32" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-000012000000}"/>
+    <hyperlink ref="E32" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-000013000000}"/>
+    <hyperlink ref="B33" location="Interactions!C42" display="Y" xr:uid="{00000000-0004-0000-0800-000014000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-000015000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-000016000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-000017000000}"/>
+    <hyperlink ref="B34" location="Interactions!C46" display="Y" xr:uid="{00000000-0004-0000-0800-000018000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-000019000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-00001A000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-00001B000000}"/>
+    <hyperlink ref="B35" location="Interactions!C50" display="Y" xr:uid="{00000000-0004-0000-0800-00001C000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-00001D000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-00001E000000}"/>
+    <hyperlink ref="E35" location="Interactions!C38" display="Y" xr:uid="{00000000-0004-0000-0800-00001F000000}"/>
+    <hyperlink ref="B59" location="Interactions!C69" display="Y" xr:uid="{00000000-0004-0000-0800-000020000000}"/>
+    <hyperlink ref="C59" location="Interactions!C66" display="Y" xr:uid="{00000000-0004-0000-0800-000021000000}"/>
+    <hyperlink ref="D59" location="Interactions!C67" display="Y" xr:uid="{00000000-0004-0000-0800-000022000000}"/>
+    <hyperlink ref="E59" location="Interactions!C68" display="Y" xr:uid="{00000000-0004-0000-0800-000023000000}"/>
+    <hyperlink ref="B60" location="Interactions!C69" display="Y" xr:uid="{00000000-0004-0000-0800-000024000000}"/>
+    <hyperlink ref="C60" location="Interactions!C70" display="Y" xr:uid="{00000000-0004-0000-0800-000025000000}"/>
+    <hyperlink ref="D60" location="Interactions!C71" display="Y" xr:uid="{00000000-0004-0000-0800-000026000000}"/>
+    <hyperlink ref="E60" location="Interactions!C72" display="Y" xr:uid="{00000000-0004-0000-0800-000027000000}"/>
+    <hyperlink ref="B62" location="Interactions!C69" display="Y" xr:uid="{00000000-0004-0000-0800-000028000000}"/>
+    <hyperlink ref="C61" location="Interactions!C74" display="Y" xr:uid="{00000000-0004-0000-0800-000029000000}"/>
+    <hyperlink ref="D61" location="Interactions!C75" display="Y" xr:uid="{00000000-0004-0000-0800-00002A000000}"/>
+    <hyperlink ref="E61" location="Interactions!C76" display="Y" xr:uid="{00000000-0004-0000-0800-00002B000000}"/>
+    <hyperlink ref="B62" location="Interactions!C69" display="Y" xr:uid="{00000000-0004-0000-0800-00002C000000}"/>
+    <hyperlink ref="C62" location="Interactions!C78" display="Y" xr:uid="{00000000-0004-0000-0800-00002D000000}"/>
+    <hyperlink ref="D62" location="Interactions!C79" display="Y" xr:uid="{00000000-0004-0000-0800-00002E000000}"/>
+    <hyperlink ref="E62" location="Interactions!C80" display="Y" xr:uid="{00000000-0004-0000-0800-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/atomica/library/malaria_databook.xlsx
+++ b/atomica/library/malaria_databook.xlsx
@@ -4,27 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Population" sheetId="2" r:id="rId2"/>
     <sheet name="Epidemic" sheetId="3" r:id="rId3"/>
-    <sheet name="Mosquito properties" sheetId="4" r:id="rId4"/>
-    <sheet name="Cascade" sheetId="5" r:id="rId5"/>
-    <sheet name="Seasonality" sheetId="6" r:id="rId6"/>
-    <sheet name="Vivax" sheetId="7" r:id="rId7"/>
-    <sheet name="DALYs" sheetId="8" r:id="rId8"/>
-    <sheet name="Constants" sheetId="9" r:id="rId9"/>
-    <sheet name="Interactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Transfers" sheetId="11" r:id="rId11"/>
+    <sheet name="Cascade" sheetId="5" r:id="rId4"/>
+    <sheet name="Seasonality" sheetId="6" r:id="rId5"/>
+    <sheet name="Vivax" sheetId="7" r:id="rId6"/>
+    <sheet name="DALYs" sheetId="8" r:id="rId7"/>
+    <sheet name="Constants" sheetId="9" r:id="rId8"/>
+    <sheet name="Interactions" sheetId="10" r:id="rId9"/>
+    <sheet name="Transfers" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="70">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -74,7 +73,7 @@
     <t>Transmission probability to mosquitoes</t>
   </si>
   <si>
-    <t>Relative likelyhood of being bitten</t>
+    <t>Bites per human per day</t>
   </si>
   <si>
     <t>Annual probability of developing malaria-like symptoms</t>
@@ -84,6 +83,9 @@
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Incubation period</t>
   </si>
   <si>
     <t>Duration of post-treatment immunity</t>
@@ -104,13 +106,10 @@
     <t>Proportion of people who die during treatment of severe malaria</t>
   </si>
   <si>
-    <t>Mosquito biting rate</t>
+    <t>Mosquito life expectancy</t>
   </si>
   <si>
-    <t>Mosquito births</t>
-  </si>
-  <si>
-    <t>Mosquito life expectancy</t>
+    <t>Bites per mosquito per day</t>
   </si>
   <si>
     <t>Number of tests</t>
@@ -131,6 +130,21 @@
     <t>Probability of positive test when having asymptomatic malaria</t>
   </si>
   <si>
+    <t>Average time of not receiving treatment (susceptible)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (latent)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (uncomplicated malaria)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (severe malaria)</t>
+  </si>
+  <si>
+    <t>Average time of not receiving treatment (asymptomatic malaria)</t>
+  </si>
+  <si>
     <t>Number of treatments</t>
   </si>
   <si>
@@ -141,12 +155,6 @@
   </si>
   <si>
     <t>Minimal mosquito incubation period</t>
-  </si>
-  <si>
-    <t>Maximal mosquito birth rate</t>
-  </si>
-  <si>
-    <t>Minimal mosquito birth rate</t>
   </si>
   <si>
     <t>Probability of infection to exposed stage</t>
@@ -225,12 +233,6 @@
   </si>
   <si>
     <t>Children</t>
-  </si>
-  <si>
-    <t>Incubation period</t>
-  </si>
-  <si>
-    <t>Factor to modify mosquito birth rates</t>
   </si>
 </sst>
 </file>
@@ -316,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,14 +340,12 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,18 +425,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
@@ -1687,6 +1675,18 @@
         <patternFill>
           <bgColor rgb="FFFFA500"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -3456,13 +3456,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,27 +3473,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>62</v>
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>66</v>
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3509,766 +3508,8 @@
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2012</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2014</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2016</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2017</v>
-      </c>
-      <c r="O9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="P9" s="1">
-        <v>2019</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>gp</v>
-      </c>
-      <c r="B10" s="3" t="str">
-        <f>IF($B$5="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>gp</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="str">
-        <f>IF($B$5="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f>IF($C$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>gp</v>
-      </c>
-      <c r="B11" s="3" t="str">
-        <f>IF($C$5="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>IF($C$5="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>preg</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="str">
-        <f>IF($C$5="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>IF($D$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>gp</v>
-      </c>
-      <c r="B12" s="3" t="str">
-        <f>IF($D$5="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>IF($D$5="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>child</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="str">
-        <f>IF($D$5="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>IF($B$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>preg</v>
-      </c>
-      <c r="B13" s="3" t="str">
-        <f>IF($B$6="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>IF($B$6="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>gp</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="str">
-        <f>IF($B$6="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>preg</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f>IF($C$6="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>preg</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="str">
-        <f>IF($C$6="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
-        <f>IF($D$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>preg</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <f>IF($D$6="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>IF($D$6="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>child</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="str">
-        <f>IF($D$6="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
-        <f>IF($B$7="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>child</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f>IF($B$7="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>IF($B$7="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>gp</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="str">
-        <f>IF($B$7="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
-        <f>IF($C$7="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>child</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f>IF($C$7="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>IF($C$7="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>preg</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="str">
-        <f>IF($C$7="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
-        <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>child</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <f>IF($D$7="Y","---&gt;","...")</f>
-        <v>---&gt;</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
-        <v>child</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f>IF($D$7="Y","OR","...")</f>
-        <v>OR</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="111" priority="13" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="14" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="10" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="105" priority="15" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="16" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:E10">
-    <cfRule type="expression" dxfId="103" priority="21">
-      <formula>$B$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="102" priority="25">
-      <formula>$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:E12">
-    <cfRule type="expression" dxfId="101" priority="29">
-      <formula>$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="100" priority="33">
-      <formula>$B$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:E14">
-    <cfRule type="expression" dxfId="99" priority="37">
-      <formula>$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:E15">
-    <cfRule type="expression" dxfId="98" priority="41">
-      <formula>$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="97" priority="45">
-      <formula>$B$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="96" priority="49">
-      <formula>$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="95" priority="53">
-      <formula>$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="6" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="92" priority="11" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="12" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="90" priority="17" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="18" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="88" priority="19">
-      <formula>COUNTIF(G10:Q10,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="20">
-      <formula>AND(COUNTIF(G10:Q10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="86" priority="23">
-      <formula>COUNTIF(G11:Q11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="24">
-      <formula>AND(COUNTIF(G11:Q11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="84" priority="27">
-      <formula>COUNTIF(G12:Q12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="83" priority="28">
-      <formula>AND(COUNTIF(G12:Q12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="82" priority="31">
-      <formula>COUNTIF(G13:Q13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="32">
-      <formula>AND(COUNTIF(G13:Q13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="80" priority="35">
-      <formula>COUNTIF(G14:Q14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="36">
-      <formula>AND(COUNTIF(G14:Q14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="78" priority="39">
-      <formula>COUNTIF(G15:Q15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="40">
-      <formula>AND(COUNTIF(G15:Q15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="76" priority="43">
-      <formula>COUNTIF(G16:Q16,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="44">
-      <formula>AND(COUNTIF(G16:Q16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="74" priority="47">
-      <formula>COUNTIF(G17:Q17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="48">
-      <formula>AND(COUNTIF(G17:Q17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="72" priority="51">
-      <formula>COUNTIF(G18:Q18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="52">
-      <formula>AND(COUNTIF(G18:Q18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:Q10">
-    <cfRule type="expression" dxfId="70" priority="22">
-      <formula>$B$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:Q11">
-    <cfRule type="expression" dxfId="69" priority="26">
-      <formula>$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:Q12">
-    <cfRule type="expression" dxfId="68" priority="30">
-      <formula>$D$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13:Q13">
-    <cfRule type="expression" dxfId="67" priority="34">
-      <formula>$B$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:Q14">
-    <cfRule type="expression" dxfId="66" priority="38">
-      <formula>$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15:Q15">
-    <cfRule type="expression" dxfId="65" priority="42">
-      <formula>$D$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:Q16">
-    <cfRule type="expression" dxfId="64" priority="46">
-      <formula>$B$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:Q17">
-    <cfRule type="expression" dxfId="63" priority="50">
-      <formula>$C$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:Q18">
-    <cfRule type="expression" dxfId="62" priority="54">
-      <formula>$D$7&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"N.A."</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B5" location="Interactions!C10" display="Y"/>
-    <hyperlink ref="C5" location="Interactions!C11" display="Y"/>
-    <hyperlink ref="D5" location="Interactions!C12" display="Y"/>
-    <hyperlink ref="B6" location="Interactions!C13" display="Y"/>
-    <hyperlink ref="C6" location="Interactions!C14" display="Y"/>
-    <hyperlink ref="D6" location="Interactions!C15" display="Y"/>
-    <hyperlink ref="B7" location="Interactions!C16" display="Y"/>
-    <hyperlink ref="C7" location="Interactions!C17" display="Y"/>
-    <hyperlink ref="D7" location="Interactions!C18" display="Y"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF808080"/>
-  </sheetPr>
-  <dimension ref="A1:Q18"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,10 +3530,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4315,13 +3556,13 @@
         <v>gp</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4330,13 +3571,13 @@
         <v>preg</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4345,13 +3586,13 @@
         <v>child</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -4433,21 +3674,25 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>IF($C$5="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>...</v>
+        <v>gp</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>IF($C$5="Y","---&gt;","...")</f>
-        <v>...</v>
+        <v>---&gt;</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>IF($C$5="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>...</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>preg</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.01</v>
+      </c>
       <c r="F11" s="3" t="str">
         <f>IF($C$5="Y","OR","...")</f>
-        <v>...</v>
+        <v>OR</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -4495,21 +3740,25 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>IF($B$6="Y",'Population Definitions'!$A$3,"...")</f>
-        <v>...</v>
+        <v>preg</v>
       </c>
       <c r="B13" s="3" t="str">
         <f>IF($B$6="Y","---&gt;","...")</f>
-        <v>...</v>
+        <v>---&gt;</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>IF($B$6="Y",'Population Definitions'!$A$2,"...")</f>
-        <v>...</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+        <v>gp</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.75</v>
+      </c>
       <c r="F13" s="3" t="str">
         <f>IF($B$6="Y","OR","...")</f>
-        <v>...</v>
+        <v>OR</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -4684,212 +3933,212 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="59" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:E10">
-    <cfRule type="expression" dxfId="53" priority="15">
+    <cfRule type="expression" dxfId="51" priority="15">
       <formula>$B$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:E11">
-    <cfRule type="expression" dxfId="52" priority="19">
+    <cfRule type="expression" dxfId="50" priority="19">
       <formula>$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:E12">
-    <cfRule type="expression" dxfId="51" priority="23">
+    <cfRule type="expression" dxfId="49" priority="23">
       <formula>$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="expression" dxfId="50" priority="27">
+    <cfRule type="expression" dxfId="48" priority="27">
       <formula>$B$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="expression" dxfId="49" priority="31">
+    <cfRule type="expression" dxfId="47" priority="31">
       <formula>$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:E15">
-    <cfRule type="expression" dxfId="48" priority="35">
+    <cfRule type="expression" dxfId="46" priority="35">
       <formula>$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="expression" dxfId="47" priority="39">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$B$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="expression" dxfId="46" priority="43">
+    <cfRule type="expression" dxfId="44" priority="43">
       <formula>$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="expression" dxfId="45" priority="47">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="40" priority="13">
+    <cfRule type="expression" dxfId="38" priority="13">
       <formula>COUNTIF(G10:Q10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="14">
+    <cfRule type="expression" dxfId="37" priority="14">
       <formula>AND(COUNTIF(G10:Q10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="38" priority="17">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>COUNTIF(G11:Q11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="18">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>AND(COUNTIF(G11:Q11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="36" priority="21">
+    <cfRule type="expression" dxfId="34" priority="21">
       <formula>COUNTIF(G12:Q12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="33" priority="22">
       <formula>AND(COUNTIF(G12:Q12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>COUNTIF(G13:Q13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>AND(COUNTIF(G13:Q13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="32" priority="29">
+    <cfRule type="expression" dxfId="30" priority="29">
       <formula>COUNTIF(G14:Q14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>AND(COUNTIF(G14:Q14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="28" priority="33">
       <formula>COUNTIF(G15:Q15,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="34">
+    <cfRule type="expression" dxfId="27" priority="34">
       <formula>AND(COUNTIF(G15:Q15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="28" priority="37">
+    <cfRule type="expression" dxfId="26" priority="37">
       <formula>COUNTIF(G16:Q16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>AND(COUNTIF(G16:Q16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="26" priority="41">
+    <cfRule type="expression" dxfId="24" priority="41">
       <formula>COUNTIF(G17:Q17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="42">
+    <cfRule type="expression" dxfId="23" priority="42">
       <formula>AND(COUNTIF(G17:Q17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="24" priority="45">
+    <cfRule type="expression" dxfId="22" priority="45">
       <formula>COUNTIF(G18:Q18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="46">
+    <cfRule type="expression" dxfId="21" priority="46">
       <formula>AND(COUNTIF(G18:Q18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:Q10">
-    <cfRule type="expression" dxfId="22" priority="16">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$B$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:Q11">
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:Q12">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="18" priority="24">
       <formula>$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:Q13">
-    <cfRule type="expression" dxfId="19" priority="28">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>$B$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:Q14">
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:Q15">
-    <cfRule type="expression" dxfId="17" priority="36">
+    <cfRule type="expression" dxfId="15" priority="36">
       <formula>$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:Q16">
-    <cfRule type="expression" dxfId="16" priority="40">
+    <cfRule type="expression" dxfId="14" priority="40">
       <formula>$B$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:Q17">
-    <cfRule type="expression" dxfId="15" priority="44">
+    <cfRule type="expression" dxfId="13" priority="44">
       <formula>$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:Q18">
-    <cfRule type="expression" dxfId="14" priority="48">
+    <cfRule type="expression" dxfId="12" priority="48">
       <formula>$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4969,7 +4218,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C24"/>
+      <selection activeCell="C12" sqref="C12:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5033,7 +4282,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>49090153</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5059,7 +4308,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>887333</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5085,7 +4334,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>10509301</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -5774,8 +5023,8 @@
   </sheetPr>
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6209,7 +5458,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -6235,7 +5484,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
@@ -6261,7 +5510,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
@@ -6525,131 +5774,131 @@
       <c r="O29" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
         <v>2010</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="1">
         <v>2011</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="1">
         <v>2012</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="1">
         <v>2013</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="1">
         <v>2014</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="1">
         <v>2015</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="1">
         <v>2016</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="1">
         <v>2017</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="1">
         <v>2018</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="1">
         <v>2019</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="1">
         <v>2020</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="str">
+      <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>gp</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="4">
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="str">
+      <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>preg</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="4">
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="str">
+      <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>child</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="4">
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -6772,7 +6021,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3</v>
@@ -6849,7 +6098,7 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="2">
         <v>0.03</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -6875,7 +6124,7 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="2">
         <v>0.03</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -6895,7 +6144,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>3</v>
@@ -6972,7 +6221,7 @@
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="2">
         <v>0.05</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -6998,7 +6247,7 @@
       <c r="B49" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="2">
         <v>0.05</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -7018,7 +6267,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
@@ -7067,7 +6316,7 @@
         <v>gp</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -7093,9 +6342,9 @@
         <v>preg</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="6">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2">
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -7119,9 +6368,9 @@
         <v>child</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="6">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2">
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -7141,7 +6390,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>3</v>
@@ -7190,7 +6439,7 @@
         <v>gp</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -7216,7 +6465,7 @@
         <v>preg</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -7242,7 +6491,7 @@
         <v>child</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -7359,124 +6608,289 @@
       <formula>AND(COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="305" priority="37">
+      <formula>COUNTIF(E32:O32,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="304" priority="38">
+      <formula>AND(COUNTIF(E32:O32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="303" priority="39">
+      <formula>COUNTIF(E33:O33,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="302" priority="40">
+      <formula>AND(COUNTIF(E33:O33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="301" priority="41">
+      <formula>COUNTIF(E34:O34,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="300" priority="42">
+      <formula>AND(COUNTIF(E34:O34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="305" priority="37">
+    <cfRule type="expression" dxfId="299" priority="43">
       <formula>COUNTIF(E37:O37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="38">
+    <cfRule type="expression" dxfId="298" priority="44">
       <formula>AND(COUNTIF(E37:O37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="303" priority="39">
+    <cfRule type="expression" dxfId="297" priority="45">
       <formula>COUNTIF(E38:O38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="40">
+    <cfRule type="expression" dxfId="296" priority="46">
       <formula>AND(COUNTIF(E38:O38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="301" priority="41">
+    <cfRule type="expression" dxfId="295" priority="47">
       <formula>COUNTIF(E39:O39,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="42">
+    <cfRule type="expression" dxfId="294" priority="48">
       <formula>AND(COUNTIF(E39:O39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C44">
-    <cfRule type="expression" dxfId="299" priority="43">
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="293" priority="5">
+      <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="292" priority="6">
+      <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="291" priority="49">
       <formula>COUNTIF(E42:O42,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="44">
+    <cfRule type="expression" dxfId="290" priority="50">
       <formula>AND(COUNTIF(E42:O42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="297" priority="5">
-      <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="296" priority="6">
-      <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C49">
-    <cfRule type="expression" dxfId="295" priority="49">
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="289" priority="51">
+      <formula>COUNTIF(E43:O43,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="52">
+      <formula>AND(COUNTIF(E43:O43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="287" priority="53">
+      <formula>COUNTIF(E44:O44,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="286" priority="54">
+      <formula>AND(COUNTIF(E44:O44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="expression" dxfId="285" priority="55">
       <formula>COUNTIF(E47:O47,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="50">
+    <cfRule type="expression" dxfId="284" priority="56">
       <formula>AND(COUNTIF(E47:O47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C54">
-    <cfRule type="expression" dxfId="293" priority="55">
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="283" priority="57">
+      <formula>COUNTIF(E48:O48,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="282" priority="58">
+      <formula>AND(COUNTIF(E48:O48,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="281" priority="59">
+      <formula>COUNTIF(E49:O49,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="280" priority="60">
+      <formula>AND(COUNTIF(E49:O49,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="279" priority="61">
       <formula>COUNTIF(E52:O52,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="56">
+    <cfRule type="expression" dxfId="278" priority="62">
       <formula>AND(COUNTIF(E52:O52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="277" priority="63">
+      <formula>COUNTIF(E53:O53,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="64">
+      <formula>AND(COUNTIF(E53:O53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="275" priority="65">
+      <formula>COUNTIF(E54:O54,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="274" priority="66">
+      <formula>AND(COUNTIF(E54:O54,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="291" priority="61">
+    <cfRule type="expression" dxfId="273" priority="67">
       <formula>COUNTIF(E57:O57,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="62">
+    <cfRule type="expression" dxfId="272" priority="68">
       <formula>AND(COUNTIF(E57:O57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="289" priority="63">
+    <cfRule type="expression" dxfId="271" priority="69">
       <formula>COUNTIF(E58:O58,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="64">
+    <cfRule type="expression" dxfId="270" priority="70">
       <formula>AND(COUNTIF(E58:O58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="287" priority="65">
+    <cfRule type="expression" dxfId="269" priority="71">
       <formula>COUNTIF(E59:O59,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="66">
+    <cfRule type="expression" dxfId="268" priority="72">
       <formula>AND(COUNTIF(E59:O59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="285" priority="7">
+    <cfRule type="expression" dxfId="267" priority="7">
       <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="8">
+    <cfRule type="expression" dxfId="266" priority="8">
       <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="283" priority="9">
+    <cfRule type="expression" dxfId="265" priority="9">
       <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="10">
+    <cfRule type="expression" dxfId="264" priority="10">
       <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="281" priority="11">
+    <cfRule type="expression" dxfId="263" priority="11">
       <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="12">
+    <cfRule type="expression" dxfId="262" priority="12">
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
+  <dataValidations count="36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Fraction"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:B49 B42:B44 B22:B24 B12:B14 B7:B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"Fraction"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"Fraction"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B39 B27:B29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
       <formula1>"Duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57:B59 B52:B54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>"Probability"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>"Proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>"Proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>"Proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
+      <formula1>"Proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+      <formula1>"Proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
       <formula1>"Proportion"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7489,488 +6903,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="77.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2014</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2017</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2019</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>500000000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>500000000</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>500000000</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9.5890410958904104E-2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.5890410958904104E-2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4">
-        <v>9.5890410958904104E-2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="279" priority="13">
-      <formula>COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="278" priority="14">
-      <formula>AND(COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="277" priority="15">
-      <formula>COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="276" priority="16">
-      <formula>AND(COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="275" priority="17">
-      <formula>COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="18">
-      <formula>AND(COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C4">
-    <cfRule type="expression" dxfId="273" priority="1">
-      <formula>COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="272" priority="2">
-      <formula>AND(COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="271" priority="7">
-      <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="270" priority="8">
-      <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="269" priority="9">
-      <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="10">
-      <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="267" priority="11">
-      <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="266" priority="12">
-      <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:O39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8155,7 +7091,7 @@
         <v>gp</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>0.01</v>
@@ -8181,7 +7117,7 @@
         <v>preg</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>0.01</v>
@@ -8207,7 +7143,7 @@
         <v>child</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>0.01</v>
@@ -8278,7 +7214,7 @@
         <v>gp</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
         <v>0.05</v>
@@ -8304,7 +7240,7 @@
         <v>preg</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4">
         <v>0.05</v>
@@ -8330,7 +7266,7 @@
         <v>child</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
         <v>0.05</v>
@@ -8401,7 +7337,7 @@
         <v>gp</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
         <v>0.98</v>
@@ -8427,7 +7363,7 @@
         <v>preg</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4">
         <v>0.98</v>
@@ -8453,7 +7389,7 @@
         <v>child</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4">
         <v>0.98</v>
@@ -8524,7 +7460,7 @@
         <v>gp</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="4">
         <v>0.98</v>
@@ -8550,7 +7486,7 @@
         <v>preg</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4">
         <v>0.98</v>
@@ -8576,7 +7512,7 @@
         <v>child</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="4">
         <v>0.98</v>
@@ -8647,7 +7583,7 @@
         <v>gp</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4">
         <v>0.9</v>
@@ -8673,7 +7609,7 @@
         <v>preg</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>0.9</v>
@@ -8699,7 +7635,7 @@
         <v>child</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4">
         <v>0.9</v>
@@ -8770,10 +7706,11 @@
         <v>gp</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2">
-        <v>1000000</v>
+        <f>2/365</f>
+        <v>5.4794520547945206E-3</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
@@ -8796,10 +7733,11 @@
         <v>preg</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2">
-        <v>100000</v>
+        <v>19</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" ref="C33:C34" si="0">2/365</f>
+        <v>5.4794520547945206E-3</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
@@ -8822,10 +7760,11 @@
         <v>child</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2">
-        <v>100000</v>
+        <v>19</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4794520547945206E-3</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>6</v>
@@ -8893,25 +7832,26 @@
         <v>gp</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.95</v>
+        <v>19</v>
+      </c>
+      <c r="C37" s="6">
+        <f>2/365</f>
+        <v>5.4794520547945206E-3</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
@@ -8919,25 +7859,26 @@
         <v>preg</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.95</v>
+        <v>19</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" ref="C38:C39" si="1">2/365</f>
+        <v>5.4794520547945206E-3</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
@@ -8945,220 +7886,885 @@
         <v>child</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="4">
+        <v>19</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="1"/>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2014</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2018</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2019</v>
+      </c>
+      <c r="O41" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="6">
+        <f>2/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" ref="C43:C44" si="2">2/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2014</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K46" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2018</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2019</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="6">
+        <f>2/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" ref="C48:C49" si="3">2/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" si="3"/>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2014</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2018</v>
+      </c>
+      <c r="N51" s="1">
+        <v>2019</v>
+      </c>
+      <c r="O51" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="6">
+        <f>2/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" ref="C53:C54" si="4">2/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" si="4"/>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2014</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K56" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2018</v>
+      </c>
+      <c r="N56" s="1">
+        <v>2019</v>
+      </c>
+      <c r="O56" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2014</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M61" s="1">
+        <v>2018</v>
+      </c>
+      <c r="N61" s="1">
+        <v>2019</v>
+      </c>
+      <c r="O61" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="4">
         <v>0.95</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
+      <c r="D62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="265" priority="13">
+    <cfRule type="expression" dxfId="261" priority="21">
       <formula>COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="14">
+    <cfRule type="expression" dxfId="260" priority="22">
       <formula>AND(COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="263" priority="15">
+    <cfRule type="expression" dxfId="259" priority="23">
       <formula>COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="16">
+    <cfRule type="expression" dxfId="258" priority="24">
       <formula>AND(COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="261" priority="17">
+    <cfRule type="expression" dxfId="257" priority="25">
       <formula>COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="18">
+    <cfRule type="expression" dxfId="256" priority="26">
       <formula>AND(COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="259" priority="19">
+    <cfRule type="expression" dxfId="255" priority="27">
       <formula>COUNTIF(E17:O17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="20">
+    <cfRule type="expression" dxfId="254" priority="28">
       <formula>AND(COUNTIF(E17:O17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="257" priority="21">
+    <cfRule type="expression" dxfId="253" priority="29">
       <formula>COUNTIF(E18:O18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="22">
+    <cfRule type="expression" dxfId="252" priority="30">
       <formula>AND(COUNTIF(E18:O18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="255" priority="23">
+    <cfRule type="expression" dxfId="251" priority="31">
       <formula>COUNTIF(E19:O19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="24">
+    <cfRule type="expression" dxfId="250" priority="32">
       <formula>AND(COUNTIF(E19:O19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="253" priority="1">
+    <cfRule type="expression" dxfId="249" priority="9">
       <formula>COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="2">
+    <cfRule type="expression" dxfId="248" priority="10">
       <formula>AND(COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="251" priority="25">
+    <cfRule type="expression" dxfId="247" priority="33">
       <formula>COUNTIF(E22:O22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="26">
+    <cfRule type="expression" dxfId="246" priority="34">
       <formula>AND(COUNTIF(E22:O22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="249" priority="27">
+    <cfRule type="expression" dxfId="245" priority="35">
       <formula>COUNTIF(E23:O23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="28">
+    <cfRule type="expression" dxfId="244" priority="36">
       <formula>AND(COUNTIF(E23:O23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="247" priority="29">
+    <cfRule type="expression" dxfId="243" priority="37">
       <formula>COUNTIF(E24:O24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="30">
+    <cfRule type="expression" dxfId="242" priority="38">
       <formula>AND(COUNTIF(E24:O24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="245" priority="31">
+    <cfRule type="expression" dxfId="241" priority="39">
       <formula>COUNTIF(E27:O27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="32">
+    <cfRule type="expression" dxfId="240" priority="40">
       <formula>AND(COUNTIF(E27:O27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="243" priority="33">
+    <cfRule type="expression" dxfId="239" priority="41">
       <formula>COUNTIF(E28:O28,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="34">
+    <cfRule type="expression" dxfId="238" priority="42">
       <formula>AND(COUNTIF(E28:O28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="241" priority="35">
+    <cfRule type="expression" dxfId="237" priority="43">
       <formula>COUNTIF(E29:O29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="36">
+    <cfRule type="expression" dxfId="236" priority="44">
       <formula>AND(COUNTIF(E29:O29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="239" priority="3">
+    <cfRule type="expression" dxfId="235" priority="11">
       <formula>COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="4">
+    <cfRule type="expression" dxfId="234" priority="12">
       <formula>AND(COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="237" priority="37">
+  <conditionalFormatting sqref="C32:C34">
+    <cfRule type="expression" dxfId="233" priority="45">
       <formula>COUNTIF(E32:O32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="38">
+    <cfRule type="expression" dxfId="232" priority="46">
       <formula>AND(COUNTIF(E32:O32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="235" priority="39">
-      <formula>COUNTIF(E33:O33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="40">
-      <formula>AND(COUNTIF(E33:O33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="233" priority="41">
-      <formula>COUNTIF(E34:O34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="42">
-      <formula>AND(COUNTIF(E34:O34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="231" priority="43">
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="231" priority="13">
+      <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="230" priority="14">
+      <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="expression" dxfId="229" priority="75">
+      <formula>COUNTIF(E57:O57,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="228" priority="76">
+      <formula>AND(COUNTIF(E57:O57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="expression" dxfId="227" priority="77">
+      <formula>COUNTIF(E58:O58,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="226" priority="78">
+      <formula>AND(COUNTIF(E58:O58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="expression" dxfId="225" priority="79">
+      <formula>COUNTIF(E59:O59,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="224" priority="80">
+      <formula>AND(COUNTIF(E59:O59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="223" priority="81">
+      <formula>COUNTIF(E62:O62,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="222" priority="82">
+      <formula>AND(COUNTIF(E62:O62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="221" priority="83">
+      <formula>COUNTIF(E63:O63,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="84">
+      <formula>AND(COUNTIF(E63:O63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="expression" dxfId="219" priority="85">
+      <formula>COUNTIF(E64:O64,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="86">
+      <formula>AND(COUNTIF(E64:O64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="217" priority="15">
+      <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="216" priority="16">
+      <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="215" priority="17">
+      <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="214" priority="18">
+      <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="213" priority="19">
+      <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="212" priority="20">
+      <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39">
+    <cfRule type="expression" dxfId="211" priority="7">
       <formula>COUNTIF(E37:O37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="44">
+    <cfRule type="expression" dxfId="210" priority="8">
       <formula>AND(COUNTIF(E37:O37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="229" priority="45">
-      <formula>COUNTIF(E38:O38,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="46">
-      <formula>AND(COUNTIF(E38:O38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="227" priority="47">
-      <formula>COUNTIF(E39:O39,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="226" priority="48">
-      <formula>AND(COUNTIF(E39:O39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="225" priority="5">
-      <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="6">
-      <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="223" priority="7">
-      <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="8">
-      <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="221" priority="9">
-      <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="220" priority="10">
-      <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="219" priority="11">
-      <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="218" priority="12">
-      <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="24">
+  <conditionalFormatting sqref="C42:C44">
+    <cfRule type="expression" dxfId="209" priority="5">
+      <formula>COUNTIF(E42:O42,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="6">
+      <formula>AND(COUNTIF(E42:O42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47:C49">
+    <cfRule type="expression" dxfId="207" priority="3">
+      <formula>COUNTIF(E47:O47,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="4">
+      <formula>AND(COUNTIF(E47:O47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C54">
+    <cfRule type="expression" dxfId="205" priority="1">
+      <formula>COUNTIF(E52:O52,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="2">
+      <formula>AND(COUNTIF(E52:O52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="39">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Number"</formula1>
     </dataValidation>
@@ -9214,22 +8820,403 @@
       <formula1>"Proportion"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
       <formula1>"Proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
       <formula1>"Proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64">
       <formula1>"Proportion"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF808080"/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="O6" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.9178082191780819E-2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.9178082191780819E-2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.9178082191780819E-2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="expression" dxfId="203" priority="1">
+      <formula>COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="2">
+      <formula>AND(COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="expression" dxfId="201" priority="3">
+      <formula>COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="4">
+      <formula>AND(COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="199" priority="5">
+      <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="6">
+      <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="197" priority="7">
+      <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="8">
+      <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="195" priority="9">
+      <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="10">
+      <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="193" priority="11">
+      <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="12">
+      <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9255,7 +9242,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -9304,10 +9291,10 @@
         <v>gp</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
-        <v>8.2191780821917804E-2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -9330,10 +9317,10 @@
         <v>preg</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
-        <v>8.2191780821917804E-2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -9356,10 +9343,10 @@
         <v>child</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
-        <v>8.2191780821917804E-2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -9378,7 +9365,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -9430,7 +9417,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <v>1.9178082191780819E-2</v>
+        <v>0.49315068493150682</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -9456,7 +9443,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>1.9178082191780819E-2</v>
+        <v>0.49315068493150682</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -9482,7 +9469,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>1.9178082191780819E-2</v>
+        <v>0.49315068493150682</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
@@ -9501,7 +9488,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -9550,10 +9537,10 @@
         <v>gp</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>6</v>
@@ -9576,10 +9563,10 @@
         <v>preg</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>6</v>
@@ -9602,10 +9589,10 @@
         <v>child</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
@@ -9624,7 +9611,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -9673,10 +9660,10 @@
         <v>gp</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -9699,10 +9686,10 @@
         <v>preg</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
@@ -9725,10 +9712,10 @@
         <v>child</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
@@ -9747,110 +9734,110 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="217" priority="13">
+    <cfRule type="expression" dxfId="191" priority="13">
       <formula>COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="14">
+    <cfRule type="expression" dxfId="190" priority="14">
       <formula>AND(COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="215" priority="15">
+    <cfRule type="expression" dxfId="189" priority="15">
       <formula>COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="16">
+    <cfRule type="expression" dxfId="188" priority="16">
       <formula>AND(COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="213" priority="17">
+    <cfRule type="expression" dxfId="187" priority="17">
       <formula>COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="18">
+    <cfRule type="expression" dxfId="186" priority="18">
       <formula>AND(COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="211" priority="19">
+    <cfRule type="expression" dxfId="185" priority="19">
       <formula>COUNTIF(E17:O17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="20">
+    <cfRule type="expression" dxfId="184" priority="20">
       <formula>AND(COUNTIF(E17:O17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="209" priority="21">
+    <cfRule type="expression" dxfId="183" priority="21">
       <formula>COUNTIF(E18:O18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="22">
+    <cfRule type="expression" dxfId="182" priority="22">
       <formula>AND(COUNTIF(E18:O18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="207" priority="23">
+    <cfRule type="expression" dxfId="181" priority="23">
       <formula>COUNTIF(E19:O19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="24">
+    <cfRule type="expression" dxfId="180" priority="24">
       <formula>AND(COUNTIF(E19:O19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="205" priority="1">
+    <cfRule type="expression" dxfId="179" priority="1">
       <formula>COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="2">
+    <cfRule type="expression" dxfId="178" priority="2">
       <formula>AND(COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="203" priority="3">
+    <cfRule type="expression" dxfId="177" priority="3">
       <formula>COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="4">
+    <cfRule type="expression" dxfId="176" priority="4">
       <formula>AND(COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="201" priority="5">
+    <cfRule type="expression" dxfId="175" priority="5">
       <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="6">
+    <cfRule type="expression" dxfId="174" priority="6">
       <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="199" priority="7">
+    <cfRule type="expression" dxfId="173" priority="7">
       <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="8">
+    <cfRule type="expression" dxfId="172" priority="8">
       <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="197" priority="9">
+    <cfRule type="expression" dxfId="171" priority="9">
       <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="10">
+    <cfRule type="expression" dxfId="170" priority="10">
       <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="195" priority="11">
+    <cfRule type="expression" dxfId="169" priority="11">
       <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="12">
+    <cfRule type="expression" dxfId="168" priority="12">
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Duration"</formula1>
+      <formula1>"Probability"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Duration"</formula1>
+      <formula1>"Probability"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Duration"</formula1>
+      <formula1>"Probability"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Duration"</formula1>
@@ -9885,654 +9872,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF808080"/>
-  </sheetPr>
-  <dimension ref="A1:O19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="77.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2014</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2017</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2019</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.49315068493150682</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.49315068493150682</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.49315068493150682</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2014</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="O11" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2011</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2012</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2013</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2015</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2016</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2019</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>gp</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>preg</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>child</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="193" priority="13">
-      <formula>COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="14">
-      <formula>AND(COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="191" priority="15">
-      <formula>COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="16">
-      <formula>AND(COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="189" priority="17">
-      <formula>COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="188" priority="18">
-      <formula>AND(COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="187" priority="19">
-      <formula>COUNTIF(E17:O17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="20">
-      <formula>AND(COUNTIF(E17:O17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="185" priority="21">
-      <formula>COUNTIF(E18:O18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="184" priority="22">
-      <formula>AND(COUNTIF(E18:O18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="183" priority="23">
-      <formula>COUNTIF(E19:O19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="24">
-      <formula>AND(COUNTIF(E19:O19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="181" priority="1">
-      <formula>COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="2">
-      <formula>AND(COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="179" priority="3">
-      <formula>COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="178" priority="4">
-      <formula>AND(COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="177" priority="5">
-      <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="6">
-      <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="175" priority="7">
-      <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="8">
-      <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="173" priority="9">
-      <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="10">
-      <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="171" priority="11">
-      <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="12">
-      <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
-      <formula1>"Duration"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>"Proportion"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -10553,7 +9892,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -10604,7 +9943,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -10630,7 +9969,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>0.62280000000000002</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -10656,7 +9995,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -10676,12 +10015,12 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1"/>
@@ -10727,7 +10066,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>27.89</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -10753,7 +10092,7 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>28.06</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -10779,7 +10118,7 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>30.77</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -10799,50 +10138,50 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="169" priority="1">
+    <cfRule type="expression" dxfId="167" priority="1">
       <formula>COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="2">
+    <cfRule type="expression" dxfId="166" priority="2">
       <formula>AND(COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="167" priority="3">
+    <cfRule type="expression" dxfId="165" priority="3">
       <formula>COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="4">
+    <cfRule type="expression" dxfId="164" priority="4">
       <formula>AND(COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="165" priority="5">
+    <cfRule type="expression" dxfId="163" priority="5">
       <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="6">
+    <cfRule type="expression" dxfId="162" priority="6">
       <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="163" priority="7">
+    <cfRule type="expression" dxfId="161" priority="7">
       <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="8">
+    <cfRule type="expression" dxfId="160" priority="8">
       <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="161" priority="9">
+    <cfRule type="expression" dxfId="159" priority="9">
       <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="10">
+    <cfRule type="expression" dxfId="158" priority="10">
       <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="159" priority="11">
+    <cfRule type="expression" dxfId="157" priority="11">
       <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="12">
+    <cfRule type="expression" dxfId="156" priority="12">
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10870,15 +10209,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10891,7 +10230,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -11014,7 +10353,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -11063,7 +10402,7 @@
         <v>gp</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -11089,7 +10428,7 @@
         <v>preg</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -11115,7 +10454,7 @@
         <v>child</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -11137,7 +10476,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -11186,7 +10525,7 @@
         <v>gp</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -11212,7 +10551,7 @@
         <v>preg</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -11238,7 +10577,7 @@
         <v>child</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -11260,7 +10599,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -11383,7 +10722,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -11506,7 +10845,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
@@ -11629,7 +10968,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
@@ -11751,303 +11090,466 @@
       <c r="O34" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
         <v>2010</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>2011</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>2012</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>2013</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="8">
         <v>2014</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <v>2015</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <v>2016</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="8">
         <v>2017</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>2018</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <v>2019</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="8">
         <v>2020</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="str">
+      <c r="A37" s="8" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>gp</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="11">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4">
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="str">
+      <c r="A38" s="8" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>preg</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="11">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="str">
+      <c r="A39" s="8" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>child</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="11">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="4">
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8">
+        <v>2010</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2012</v>
+      </c>
+      <c r="H41" s="8">
+        <v>2013</v>
+      </c>
+      <c r="I41" s="8">
+        <v>2014</v>
+      </c>
+      <c r="J41" s="8">
+        <v>2015</v>
+      </c>
+      <c r="K41" s="8">
+        <v>2016</v>
+      </c>
+      <c r="L41" s="8">
+        <v>2017</v>
+      </c>
+      <c r="M41" s="8">
+        <v>2018</v>
+      </c>
+      <c r="N41" s="8">
+        <v>2019</v>
+      </c>
+      <c r="O41" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="157" priority="19">
+    <cfRule type="expression" dxfId="155" priority="25">
       <formula>COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="20">
+    <cfRule type="expression" dxfId="154" priority="26">
       <formula>AND(COUNTIF(E12:O12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="155" priority="21">
+    <cfRule type="expression" dxfId="153" priority="27">
       <formula>COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="22">
+    <cfRule type="expression" dxfId="152" priority="28">
       <formula>AND(COUNTIF(E13:O13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="153" priority="23">
+    <cfRule type="expression" dxfId="151" priority="29">
       <formula>COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="24">
+    <cfRule type="expression" dxfId="150" priority="30">
       <formula>AND(COUNTIF(E14:O14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="151" priority="25">
+    <cfRule type="expression" dxfId="149" priority="31">
       <formula>COUNTIF(E17:O17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="26">
+    <cfRule type="expression" dxfId="148" priority="32">
       <formula>AND(COUNTIF(E17:O17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="149" priority="27">
+    <cfRule type="expression" dxfId="147" priority="33">
       <formula>COUNTIF(E18:O18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="28">
+    <cfRule type="expression" dxfId="146" priority="34">
       <formula>AND(COUNTIF(E18:O18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="147" priority="29">
+    <cfRule type="expression" dxfId="145" priority="35">
       <formula>COUNTIF(E19:O19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="30">
+    <cfRule type="expression" dxfId="144" priority="36">
       <formula>AND(COUNTIF(E19:O19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="145" priority="7">
+    <cfRule type="expression" dxfId="143" priority="13">
       <formula>COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="8">
+    <cfRule type="expression" dxfId="142" priority="14">
       <formula>AND(COUNTIF(E2:O2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="143" priority="31">
+    <cfRule type="expression" dxfId="141" priority="37">
       <formula>COUNTIF(E22:O22,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="32">
+    <cfRule type="expression" dxfId="140" priority="38">
       <formula>AND(COUNTIF(E22:O22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="141" priority="33">
+    <cfRule type="expression" dxfId="139" priority="39">
       <formula>COUNTIF(E23:O23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="34">
+    <cfRule type="expression" dxfId="138" priority="40">
       <formula>AND(COUNTIF(E23:O23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="139" priority="35">
+    <cfRule type="expression" dxfId="137" priority="41">
       <formula>COUNTIF(E24:O24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="36">
+    <cfRule type="expression" dxfId="136" priority="42">
       <formula>AND(COUNTIF(E24:O24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="137" priority="37">
+    <cfRule type="expression" dxfId="135" priority="43">
       <formula>COUNTIF(E27:O27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="38">
+    <cfRule type="expression" dxfId="134" priority="44">
       <formula>AND(COUNTIF(E27:O27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="135" priority="39">
+    <cfRule type="expression" dxfId="133" priority="45">
       <formula>COUNTIF(E28:O28,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="40">
+    <cfRule type="expression" dxfId="132" priority="46">
       <formula>AND(COUNTIF(E28:O28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="133" priority="41">
+    <cfRule type="expression" dxfId="131" priority="47">
       <formula>COUNTIF(E29:O29,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="42">
+    <cfRule type="expression" dxfId="130" priority="48">
       <formula>AND(COUNTIF(E29:O29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="131" priority="9">
+    <cfRule type="expression" dxfId="129" priority="15">
       <formula>COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="10">
+    <cfRule type="expression" dxfId="128" priority="16">
       <formula>AND(COUNTIF(E3:O3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="129" priority="43">
+    <cfRule type="expression" dxfId="127" priority="49">
       <formula>COUNTIF(E32:O32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="44">
+    <cfRule type="expression" dxfId="126" priority="50">
       <formula>AND(COUNTIF(E32:O32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="127" priority="45">
+    <cfRule type="expression" dxfId="125" priority="51">
       <formula>COUNTIF(E33:O33,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="46">
+    <cfRule type="expression" dxfId="124" priority="52">
       <formula>AND(COUNTIF(E33:O33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="125" priority="47">
+    <cfRule type="expression" dxfId="123" priority="53">
       <formula>COUNTIF(E34:O34,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="48">
+    <cfRule type="expression" dxfId="122" priority="54">
       <formula>AND(COUNTIF(E34:O34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="123" priority="11">
+    <cfRule type="expression" dxfId="121" priority="17">
       <formula>COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="12">
+    <cfRule type="expression" dxfId="120" priority="18">
       <formula>AND(COUNTIF(E4:O4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="121" priority="13">
+    <cfRule type="expression" dxfId="119" priority="19">
       <formula>COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="14">
+    <cfRule type="expression" dxfId="118" priority="20">
       <formula>AND(COUNTIF(E7:O7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="119" priority="15">
+    <cfRule type="expression" dxfId="117" priority="21">
       <formula>COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="16">
+    <cfRule type="expression" dxfId="116" priority="22">
       <formula>AND(COUNTIF(E8:O8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="117" priority="17">
+    <cfRule type="expression" dxfId="115" priority="23">
       <formula>COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="18">
+    <cfRule type="expression" dxfId="114" priority="24">
       <formula>AND(COUNTIF(E9:O9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39">
-    <cfRule type="expression" dxfId="13" priority="1">
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>COUNTIF(E37:O37,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(COUNTIF(E37:O37,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>COUNTIF(E38:O38,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>AND(COUNTIF(E38:O38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>COUNTIF(E39:O39,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND(COUNTIF(E39:O39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>COUNTIF(E42:O42,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(COUNTIF(E42:O42,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>COUNTIF(E43:O43,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>AND(COUNTIF(E43:O43,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>COUNTIF(E44:O44,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>AND(COUNTIF(E44:O44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="21">
@@ -12069,16 +11571,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
       <formula1>"Proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13 B38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>"Proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14">
       <formula1>"Proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B42:B44">
       <formula1>"Number"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
@@ -12087,7 +11589,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B37:B39">
       <formula1>"Duration"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
@@ -12117,4 +11619,762 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF808080"/>
+  </sheetPr>
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>gp</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>preg</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>child</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2014</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="str">
+        <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
+        <v>gp</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>IF($B$5="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>IF($B$5="Y",'Population Definitions'!$A$2,"...")</f>
+        <v>gp</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF($B$5="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="str">
+        <f>IF($C$5="Y",'Population Definitions'!$A$2,"...")</f>
+        <v>gp</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>IF($C$5="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>IF($C$5="Y",'Population Definitions'!$A$3,"...")</f>
+        <v>preg</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF($C$5="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="str">
+        <f>IF($D$5="Y",'Population Definitions'!$A$2,"...")</f>
+        <v>gp</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>IF($D$5="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>IF($D$5="Y",'Population Definitions'!$A$4,"...")</f>
+        <v>child</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF($D$5="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="str">
+        <f>IF($B$6="Y",'Population Definitions'!$A$3,"...")</f>
+        <v>preg</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>IF($B$6="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>IF($B$6="Y",'Population Definitions'!$A$2,"...")</f>
+        <v>gp</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF($B$6="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
+        <v>preg</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>IF($C$6="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>IF($C$6="Y",'Population Definitions'!$A$3,"...")</f>
+        <v>preg</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF($C$6="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="str">
+        <f>IF($D$6="Y",'Population Definitions'!$A$3,"...")</f>
+        <v>preg</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>IF($D$6="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>IF($D$6="Y",'Population Definitions'!$A$4,"...")</f>
+        <v>child</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF($D$6="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="str">
+        <f>IF($B$7="Y",'Population Definitions'!$A$4,"...")</f>
+        <v>child</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>IF($B$7="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>IF($B$7="Y",'Population Definitions'!$A$2,"...")</f>
+        <v>gp</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF($B$7="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="str">
+        <f>IF($C$7="Y",'Population Definitions'!$A$4,"...")</f>
+        <v>child</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>IF($C$7="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>IF($C$7="Y",'Population Definitions'!$A$3,"...")</f>
+        <v>preg</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF($C$7="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="str">
+        <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
+        <v>child</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>IF($D$7="Y","---&gt;","...")</f>
+        <v>---&gt;</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>IF($D$7="Y",'Population Definitions'!$A$4,"...")</f>
+        <v>child</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF($D$7="Y","OR","...")</f>
+        <v>OR</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="111" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="8" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="109" priority="13" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="14" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="105" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="103" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="16" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:E10">
+    <cfRule type="expression" dxfId="101" priority="21">
+      <formula>$B$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:E11">
+    <cfRule type="expression" dxfId="100" priority="25">
+      <formula>$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:E12">
+    <cfRule type="expression" dxfId="99" priority="29">
+      <formula>$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:E13">
+    <cfRule type="expression" dxfId="98" priority="33">
+      <formula>$B$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:E14">
+    <cfRule type="expression" dxfId="97" priority="37">
+      <formula>$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:E15">
+    <cfRule type="expression" dxfId="96" priority="41">
+      <formula>$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:E16">
+    <cfRule type="expression" dxfId="95" priority="45">
+      <formula>$B$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:E17">
+    <cfRule type="expression" dxfId="94" priority="49">
+      <formula>$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="expression" dxfId="93" priority="53">
+      <formula>$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="92" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="cellIs" dxfId="90" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="12" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="cellIs" dxfId="88" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="18" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="86" priority="19">
+      <formula>COUNTIF(G10:Q10,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="20">
+      <formula>AND(COUNTIF(G10:Q10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="84" priority="23">
+      <formula>COUNTIF(G11:Q11,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="24">
+      <formula>AND(COUNTIF(G11:Q11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="82" priority="27">
+      <formula>COUNTIF(G12:Q12,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="28">
+      <formula>AND(COUNTIF(G12:Q12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="80" priority="31">
+      <formula>COUNTIF(G13:Q13,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="32">
+      <formula>AND(COUNTIF(G13:Q13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="78" priority="35">
+      <formula>COUNTIF(G14:Q14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="36">
+      <formula>AND(COUNTIF(G14:Q14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="76" priority="39">
+      <formula>COUNTIF(G15:Q15,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="40">
+      <formula>AND(COUNTIF(G15:Q15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="expression" dxfId="74" priority="43">
+      <formula>COUNTIF(G16:Q16,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="44">
+      <formula>AND(COUNTIF(G16:Q16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="expression" dxfId="72" priority="47">
+      <formula>COUNTIF(G17:Q17,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="48">
+      <formula>AND(COUNTIF(G17:Q17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="expression" dxfId="70" priority="51">
+      <formula>COUNTIF(G18:Q18,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="52">
+      <formula>AND(COUNTIF(G18:Q18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:Q10">
+    <cfRule type="expression" dxfId="68" priority="22">
+      <formula>$B$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:Q11">
+    <cfRule type="expression" dxfId="67" priority="26">
+      <formula>$C$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:Q12">
+    <cfRule type="expression" dxfId="66" priority="30">
+      <formula>$D$5&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:Q13">
+    <cfRule type="expression" dxfId="65" priority="34">
+      <formula>$B$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:Q14">
+    <cfRule type="expression" dxfId="64" priority="38">
+      <formula>$C$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:Q15">
+    <cfRule type="expression" dxfId="63" priority="42">
+      <formula>$D$6&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:Q16">
+    <cfRule type="expression" dxfId="62" priority="46">
+      <formula>$B$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:Q17">
+    <cfRule type="expression" dxfId="61" priority="50">
+      <formula>$C$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:Q18">
+    <cfRule type="expression" dxfId="60" priority="54">
+      <formula>$D$7&lt;&gt;"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
+      <formula1>"N.A."</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B5" location="Interactions!C10" display="Y"/>
+    <hyperlink ref="C5" location="Interactions!C11" display="Y"/>
+    <hyperlink ref="D5" location="Interactions!C12" display="Y"/>
+    <hyperlink ref="B6" location="Interactions!C13" display="Y"/>
+    <hyperlink ref="C6" location="Interactions!C14" display="Y"/>
+    <hyperlink ref="D6" location="Interactions!C15" display="Y"/>
+    <hyperlink ref="B7" location="Interactions!C16" display="Y"/>
+    <hyperlink ref="C7" location="Interactions!C17" display="Y"/>
+    <hyperlink ref="D7" location="Interactions!C18" display="Y"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>